--- a/biology/Médecine/Dermite_des_chaufferettes/Dermite_des_chaufferettes.xlsx
+++ b/biology/Médecine/Dermite_des_chaufferettes/Dermite_des_chaufferettes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La dermite des chaufferettes (ou encore dermite a calore ou erythema ab igne) est un aspect que peut prendre la peau lors d'une exposition prolongée ou répétée à une source de chaleur, sans qu'il y ait une lésion de brûlure.
 </t>
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les lésions ont été décrites au début du XXe siècle[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les lésions ont été décrites au début du XXe siècle.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Mécanisme</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il semble être dû à une lésion vasculaire, avec dépôts d'hémosidérine dans la peau[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il semble être dû à une lésion vasculaire, avec dépôts d'hémosidérine dans la peau.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il se présente sous forme d'une hyperpigmentation de la peau, ne disparaissant pas à la pression et de forme réticulaire. La source de chaleur est variable, pouvant être par exemple un ordinateur portable sur les cuisses[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se présente sous forme d'une hyperpigmentation de la peau, ne disparaissant pas à la pression et de forme réticulaire. La source de chaleur est variable, pouvant être par exemple un ordinateur portable sur les cuisses.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il consiste essentiellement en l'évitement de la source de chaleur.
 </t>
@@ -635,9 +655,11 @@
           <t>Évolution</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'atteinte est bénigne, même s'il a été décrit quelques cancers de la peau[4]. Les lésions s'estompent en quelques semaines ou années[2]. Dans les cas sévères, une crème au 5 fluorouracile peut être proposée[5].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'atteinte est bénigne, même s'il a été décrit quelques cancers de la peau. Les lésions s'estompent en quelques semaines ou années. Dans les cas sévères, une crème au 5 fluorouracile peut être proposée.
 </t>
         </is>
       </c>
